--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H2">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I2">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J2">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>1.122840301383333</v>
+        <v>0.1434900450666667</v>
       </c>
       <c r="R2">
-        <v>10.10556271245</v>
+        <v>1.2914104056</v>
       </c>
       <c r="S2">
-        <v>0.005452031972824952</v>
+        <v>0.001596294180838868</v>
       </c>
       <c r="T2">
-        <v>0.005452031972824952</v>
+        <v>0.001596294180838868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H3">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I3">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J3">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>36.64019285534444</v>
+        <v>17.00174292985778</v>
       </c>
       <c r="R3">
-        <v>329.7617356981</v>
+        <v>153.01568636872</v>
       </c>
       <c r="S3">
-        <v>0.1779090959700171</v>
+        <v>0.189140530901924</v>
       </c>
       <c r="T3">
-        <v>0.1779090959700171</v>
+        <v>0.189140530901924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H4">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I4">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J4">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>12.69080638470278</v>
+        <v>5.741568982084444</v>
       </c>
       <c r="R4">
-        <v>114.217257462325</v>
+        <v>51.67412083876</v>
       </c>
       <c r="S4">
-        <v>0.06162112464710078</v>
+        <v>0.06387365165805124</v>
       </c>
       <c r="T4">
-        <v>0.06162112464710078</v>
+        <v>0.06387365165805126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H5">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I5">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J5">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.10001986475</v>
+        <v>0.03858090290444445</v>
       </c>
       <c r="R5">
-        <v>0.90017878275</v>
+        <v>0.3472281261400001</v>
       </c>
       <c r="S5">
-        <v>0.0004856536587285</v>
+        <v>0.0004292037874074154</v>
       </c>
       <c r="T5">
-        <v>0.0004856536587285</v>
+        <v>0.0004292037874074155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H6">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I6">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J6">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>3.451445268339333</v>
+        <v>0.419128465</v>
       </c>
       <c r="R6">
-        <v>31.063007415054</v>
+        <v>3.772156185</v>
       </c>
       <c r="S6">
-        <v>0.01675874114267053</v>
+        <v>0.004662709035965386</v>
       </c>
       <c r="T6">
-        <v>0.01675874114267053</v>
+        <v>0.004662709035965387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H7">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I7">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J7">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>112.6265419096725</v>
+        <v>49.66138531216667</v>
       </c>
       <c r="R7">
-        <v>1013.638877187052</v>
+        <v>446.9524678095</v>
       </c>
       <c r="S7">
-        <v>0.5468662878627935</v>
+        <v>0.5524716390560546</v>
       </c>
       <c r="T7">
-        <v>0.5468662878627935</v>
+        <v>0.5524716390560547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H8">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I8">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J8">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>39.00966468154878</v>
+        <v>16.77088464941667</v>
       </c>
       <c r="R8">
-        <v>351.086982133939</v>
+        <v>150.93796184475</v>
       </c>
       <c r="S8">
-        <v>0.189414237118993</v>
+        <v>0.1865722849340912</v>
       </c>
       <c r="T8">
-        <v>0.189414237118993</v>
+        <v>0.1865722849340913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H9">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I9">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J9">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>0.30744629357</v>
+        <v>0.1126932157916667</v>
       </c>
       <c r="R9">
-        <v>2.76701664213</v>
+        <v>1.014238942125</v>
       </c>
       <c r="S9">
-        <v>0.001492827626871861</v>
+        <v>0.001253686445667205</v>
       </c>
       <c r="T9">
-        <v>0.001492827626871861</v>
+        <v>0.001253686445667205</v>
       </c>
     </row>
   </sheetData>
